--- a/KoszulCohomologyAndKodairaSpencerMap - GAPCode/AlgebraCohomologyTable1.11.xlsx
+++ b/KoszulCohomologyAndKodairaSpencerMap - GAPCode/AlgebraCohomologyTable1.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6505CD88-56C8-4EBE-9F62-DE6F036C54E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E70A699-895E-488C-AAB1-3CB381FD30D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E51FDD65-69E7-4EEB-8F64-B96F8E9AD62A}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="370">
   <si>
     <t>Algebras</t>
   </si>
@@ -7371,13 +7371,22 @@
   </si>
   <si>
     <t>not parameterized</t>
+  </si>
+  <si>
+    <t>surj comp</t>
+  </si>
+  <si>
+    <t>bij comp</t>
+  </si>
+  <si>
+    <t>professor said it's bij</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7513,6 +7522,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7964,7 +7980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8592,6 +8608,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9328,7 +9350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81195B0C-40F1-4FE4-9550-0FD41F764031}">
   <dimension ref="A3:AG108"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B65" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
@@ -17078,8 +17100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6595FAB-B283-415D-8E38-1D148D124CD5}">
   <dimension ref="C7:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="V104" sqref="V104"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="66" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18837,6 +18859,14 @@
       <c r="T44" s="64"/>
       <c r="U44" s="37"/>
     </row>
+    <row r="47" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="W47" s="62" t="s">
+        <v>368</v>
+      </c>
+    </row>
     <row r="48" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="125" t="s">
         <v>0</v>
@@ -19100,7 +19130,7 @@
         <v>3</v>
       </c>
       <c r="S54" s="70"/>
-      <c r="T54" s="72"/>
+      <c r="T54" s="219"/>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -19133,7 +19163,7 @@
         <v>3</v>
       </c>
       <c r="S55" s="70"/>
-      <c r="T55" s="72"/>
+      <c r="T55" s="220"/>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -19462,8 +19492,10 @@
       <c r="Q67" s="66"/>
       <c r="R67" s="66"/>
       <c r="S67" s="56"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="37" t="s">
+        <v>369</v>
+      </c>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
       <c r="X67" s="6"/>
